--- a/Connectivity_matrices/Trial_C_matrices.xlsx
+++ b/Connectivity_matrices/Trial_C_matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8290203F-DFA4-43D1-8424-C7940C1F8E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B76A30-3A5C-4FCF-BE79-E5E0B325280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:EY155"/>
   <sheetViews>
-    <sheetView topLeftCell="DJ98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="EE121" sqref="EE121"/>
+    <sheetView tabSelected="1" topLeftCell="CV41" zoomScale="43" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DV81" sqref="DV81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -15506,7 +15506,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -16480,7 +16480,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -17941,7 +17941,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -18428,7 +18428,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -19402,7 +19402,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -20863,7 +20863,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -21350,7 +21350,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -21801,7 +21801,7 @@
       </c>
       <c r="S44">
         <f>'PEN-to-EPG'!H1 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <f>'PEN-to-EPG'!I1 * Gains!$E$7</f>
@@ -21833,7 +21833,7 @@
       </c>
       <c r="AA44">
         <f>'PEN-to-EPG'!P1 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="1">
         <v>0</v>
@@ -22256,7 +22256,7 @@
       </c>
       <c r="L45">
         <f>'PEN-to-EPG'!A2 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <f>'PEN-to-EPG'!B2 * Gains!$E$7</f>
@@ -22288,7 +22288,7 @@
       </c>
       <c r="T45">
         <f>'PEN-to-EPG'!I2 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <f>'PEN-to-EPG'!J2 * Gains!$E$7</f>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="M46">
         <f>'PEN-to-EPG'!B3 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <f>'PEN-to-EPG'!C3 * Gains!$E$7</f>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="U46">
         <f>'PEN-to-EPG'!J3 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <f>'PEN-to-EPG'!K3 * Gains!$E$7</f>
@@ -23230,7 +23230,7 @@
       </c>
       <c r="N47">
         <f>'PEN-to-EPG'!C4 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <f>'PEN-to-EPG'!D4 * Gains!$E$7</f>
@@ -23262,7 +23262,7 @@
       </c>
       <c r="V47">
         <f>'PEN-to-EPG'!K4 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <f>'PEN-to-EPG'!L4 * Gains!$E$7</f>
@@ -23717,7 +23717,7 @@
       </c>
       <c r="O48">
         <f>'PEN-to-EPG'!D5 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <f>'PEN-to-EPG'!E5 * Gains!$E$7</f>
@@ -23749,7 +23749,7 @@
       </c>
       <c r="W48">
         <f>'PEN-to-EPG'!L5 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <f>'PEN-to-EPG'!M5 * Gains!$E$7</f>
@@ -24204,7 +24204,7 @@
       </c>
       <c r="P49">
         <f>'PEN-to-EPG'!E6 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <f>'PEN-to-EPG'!F6 * Gains!$E$7</f>
@@ -24236,7 +24236,7 @@
       </c>
       <c r="X49">
         <f>'PEN-to-EPG'!M6 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <f>'PEN-to-EPG'!N6 * Gains!$E$7</f>
@@ -24691,7 +24691,7 @@
       </c>
       <c r="Q50">
         <f>'PEN-to-EPG'!F7 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <f>'PEN-to-EPG'!G7 * Gains!$E$7</f>
@@ -24723,7 +24723,7 @@
       </c>
       <c r="Y50">
         <f>'PEN-to-EPG'!N7 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <f>'PEN-to-EPG'!O7 * Gains!$E$7</f>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="R51">
         <f>'PEN-to-EPG'!G8 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <f>'PEN-to-EPG'!H8 * Gains!$E$7</f>
@@ -25210,7 +25210,7 @@
       </c>
       <c r="Z51">
         <f>'PEN-to-EPG'!O8 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <f>'PEN-to-EPG'!P8 * Gains!$E$7</f>
@@ -25641,7 +25641,7 @@
       </c>
       <c r="M52">
         <f>'PEN-to-EPG'!B9 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <f>'PEN-to-EPG'!C9 * Gains!$E$7</f>
@@ -25673,7 +25673,7 @@
       </c>
       <c r="U52">
         <f>'PEN-to-EPG'!J9 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <f>'PEN-to-EPG'!K9 * Gains!$E$7</f>
@@ -26128,7 +26128,7 @@
       </c>
       <c r="N53">
         <f>'PEN-to-EPG'!C10 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <f>'PEN-to-EPG'!D10 * Gains!$E$7</f>
@@ -26160,7 +26160,7 @@
       </c>
       <c r="V53">
         <f>'PEN-to-EPG'!K10 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <f>'PEN-to-EPG'!L10 * Gains!$E$7</f>
@@ -26615,7 +26615,7 @@
       </c>
       <c r="O54">
         <f>'PEN-to-EPG'!D11 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <f>'PEN-to-EPG'!E11 * Gains!$E$7</f>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="W54">
         <f>'PEN-to-EPG'!L11 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <f>'PEN-to-EPG'!M11 * Gains!$E$7</f>
@@ -27102,7 +27102,7 @@
       </c>
       <c r="P55">
         <f>'PEN-to-EPG'!E12 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <f>'PEN-to-EPG'!F12 * Gains!$E$7</f>
@@ -27134,7 +27134,7 @@
       </c>
       <c r="X55">
         <f>'PEN-to-EPG'!M12 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <f>'PEN-to-EPG'!N12 * Gains!$E$7</f>
@@ -27589,7 +27589,7 @@
       </c>
       <c r="Q56">
         <f>'PEN-to-EPG'!F13 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <f>'PEN-to-EPG'!G13 * Gains!$E$7</f>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="Y56">
         <f>'PEN-to-EPG'!N13 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
         <f>'PEN-to-EPG'!O13 * Gains!$E$7</f>
@@ -28076,7 +28076,7 @@
       </c>
       <c r="R57">
         <f>'PEN-to-EPG'!G14 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <f>'PEN-to-EPG'!H14 * Gains!$E$7</f>
@@ -28108,7 +28108,7 @@
       </c>
       <c r="Z57">
         <f>'PEN-to-EPG'!O14 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <f>'PEN-to-EPG'!P14 * Gains!$E$7</f>
@@ -28563,7 +28563,7 @@
       </c>
       <c r="S58">
         <f>'PEN-to-EPG'!H15 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58">
         <f>'PEN-to-EPG'!I15 * Gains!$E$7</f>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="AA58">
         <f>'PEN-to-EPG'!P15 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="1">
         <v>0</v>
@@ -29018,7 +29018,7 @@
       </c>
       <c r="L59">
         <f>'PEN-to-EPG'!A16 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <f>'PEN-to-EPG'!B16 * Gains!$E$7</f>
@@ -29050,7 +29050,7 @@
       </c>
       <c r="T59">
         <f>'PEN-to-EPG'!I16 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59">
         <f>'PEN-to-EPG'!J16 * Gains!$E$7</f>
@@ -29920,63 +29920,63 @@
         <v>0</v>
       </c>
       <c r="DU60">
-        <f>'d7-to-PEG-PEN'!B1</f>
+        <f>'d7-to-PEG-PEN'!B1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV60">
-        <f>'d7-to-PEG-PEN'!C1</f>
+        <f>'d7-to-PEG-PEN'!C1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW60">
-        <f>'d7-to-PEG-PEN'!D1</f>
+        <f>'d7-to-PEG-PEN'!D1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX60">
-        <f>'d7-to-PEG-PEN'!E1</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!E1 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="DY60">
-        <f>'d7-to-PEG-PEN'!F1</f>
+        <f>'d7-to-PEG-PEN'!F1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ60">
-        <f>'d7-to-PEG-PEN'!G1</f>
+        <f>'d7-to-PEG-PEN'!G1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA60">
-        <f>'d7-to-PEG-PEN'!H1</f>
+        <f>'d7-to-PEG-PEN'!H1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB60">
-        <f>'d7-to-PEG-PEN'!I1</f>
+        <f>'d7-to-PEG-PEN'!I1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC60">
-        <f>'d7-to-PEG-PEN'!J1</f>
+        <f>'d7-to-PEG-PEN'!J1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED60">
-        <f>'d7-to-PEG-PEN'!K1</f>
+        <f>'d7-to-PEG-PEN'!K1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE60">
-        <f>'d7-to-PEG-PEN'!L1</f>
+        <f>'d7-to-PEG-PEN'!L1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF60">
-        <f>'d7-to-PEG-PEN'!M1</f>
+        <f>'d7-to-PEG-PEN'!M1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG60">
-        <f>'d7-to-PEG-PEN'!N1</f>
+        <f>'d7-to-PEG-PEN'!N1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH60">
-        <f>'d7-to-PEG-PEN'!O1</f>
+        <f>'d7-to-PEG-PEN'!O1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI60">
-        <f>'d7-to-PEG-PEN'!P1</f>
+        <f>'d7-to-PEG-PEN'!P1 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ60">
@@ -30495,67 +30495,67 @@
         <v>0</v>
       </c>
       <c r="DT61">
-        <f>'d7-to-PEG-PEN'!A2</f>
+        <f>'d7-to-PEG-PEN'!A2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU61">
-        <f>'d7-to-PEG-PEN'!B2</f>
+        <f>'d7-to-PEG-PEN'!B2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV61">
-        <f>'d7-to-PEG-PEN'!C2</f>
+        <f>'d7-to-PEG-PEN'!C2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW61">
-        <f>'d7-to-PEG-PEN'!D2</f>
+        <f>'d7-to-PEG-PEN'!D2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX61">
-        <f>'d7-to-PEG-PEN'!E2</f>
+        <f>'d7-to-PEG-PEN'!E2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY61">
-        <f>'d7-to-PEG-PEN'!F2</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!F2 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="DZ61">
-        <f>'d7-to-PEG-PEN'!G2</f>
+        <f>'d7-to-PEG-PEN'!G2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA61">
-        <f>'d7-to-PEG-PEN'!H2</f>
+        <f>'d7-to-PEG-PEN'!H2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB61">
-        <f>'d7-to-PEG-PEN'!I2</f>
+        <f>'d7-to-PEG-PEN'!I2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC61">
-        <f>'d7-to-PEG-PEN'!J2</f>
+        <f>'d7-to-PEG-PEN'!J2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED61">
-        <f>'d7-to-PEG-PEN'!K2</f>
+        <f>'d7-to-PEG-PEN'!K2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE61">
-        <f>'d7-to-PEG-PEN'!L2</f>
+        <f>'d7-to-PEG-PEN'!L2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF61">
-        <f>'d7-to-PEG-PEN'!M2</f>
+        <f>'d7-to-PEG-PEN'!M2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG61">
-        <f>'d7-to-PEG-PEN'!N2</f>
+        <f>'d7-to-PEG-PEN'!N2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH61">
-        <f>'d7-to-PEG-PEN'!O2</f>
+        <f>'d7-to-PEG-PEN'!O2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI61">
-        <f>'d7-to-PEG-PEN'!P2</f>
+        <f>'d7-to-PEG-PEN'!P2 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ61">
@@ -31074,67 +31074,67 @@
         <v>0</v>
       </c>
       <c r="DT62">
-        <f>'d7-to-PEG-PEN'!A3</f>
+        <f>'d7-to-PEG-PEN'!A3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU62">
-        <f>'d7-to-PEG-PEN'!B3</f>
+        <f>'d7-to-PEG-PEN'!B3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV62">
-        <f>'d7-to-PEG-PEN'!C3</f>
+        <f>'d7-to-PEG-PEN'!C3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW62">
-        <f>'d7-to-PEG-PEN'!D3</f>
+        <f>'d7-to-PEG-PEN'!D3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX62">
-        <f>'d7-to-PEG-PEN'!E3</f>
+        <f>'d7-to-PEG-PEN'!E3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY62">
-        <f>'d7-to-PEG-PEN'!F3</f>
+        <f>'d7-to-PEG-PEN'!F3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ62">
-        <f>'d7-to-PEG-PEN'!G3</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!G3 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EA62">
-        <f>'d7-to-PEG-PEN'!H3</f>
+        <f>'d7-to-PEG-PEN'!H3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB62">
-        <f>'d7-to-PEG-PEN'!I3</f>
+        <f>'d7-to-PEG-PEN'!I3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC62">
-        <f>'d7-to-PEG-PEN'!J3</f>
+        <f>'d7-to-PEG-PEN'!J3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED62">
-        <f>'d7-to-PEG-PEN'!K3</f>
+        <f>'d7-to-PEG-PEN'!K3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE62">
-        <f>'d7-to-PEG-PEN'!L3</f>
+        <f>'d7-to-PEG-PEN'!L3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF62">
-        <f>'d7-to-PEG-PEN'!M3</f>
+        <f>'d7-to-PEG-PEN'!M3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG62">
-        <f>'d7-to-PEG-PEN'!N3</f>
+        <f>'d7-to-PEG-PEN'!N3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH62">
-        <f>'d7-to-PEG-PEN'!O3</f>
+        <f>'d7-to-PEG-PEN'!O3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI62">
-        <f>'d7-to-PEG-PEN'!P3</f>
+        <f>'d7-to-PEG-PEN'!P3 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ62">
@@ -31653,67 +31653,67 @@
         <v>0</v>
       </c>
       <c r="DT63">
-        <f>'d7-to-PEG-PEN'!A4</f>
+        <f>'d7-to-PEG-PEN'!A4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU63">
-        <f>'d7-to-PEG-PEN'!B4</f>
+        <f>'d7-to-PEG-PEN'!B4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV63">
-        <f>'d7-to-PEG-PEN'!C4</f>
+        <f>'d7-to-PEG-PEN'!C4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW63">
-        <f>'d7-to-PEG-PEN'!D4</f>
+        <f>'d7-to-PEG-PEN'!D4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX63">
-        <f>'d7-to-PEG-PEN'!E4</f>
+        <f>'d7-to-PEG-PEN'!E4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY63">
-        <f>'d7-to-PEG-PEN'!F4</f>
+        <f>'d7-to-PEG-PEN'!F4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ63">
-        <f>'d7-to-PEG-PEN'!G4</f>
+        <f>'d7-to-PEG-PEN'!G4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA63">
-        <f>'d7-to-PEG-PEN'!H4</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!H4 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EB63">
-        <f>'d7-to-PEG-PEN'!I4</f>
+        <f>'d7-to-PEG-PEN'!I4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC63">
-        <f>'d7-to-PEG-PEN'!J4</f>
+        <f>'d7-to-PEG-PEN'!J4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED63">
-        <f>'d7-to-PEG-PEN'!K4</f>
+        <f>'d7-to-PEG-PEN'!K4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE63">
-        <f>'d7-to-PEG-PEN'!L4</f>
+        <f>'d7-to-PEG-PEN'!L4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF63">
-        <f>'d7-to-PEG-PEN'!M4</f>
+        <f>'d7-to-PEG-PEN'!M4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG63">
-        <f>'d7-to-PEG-PEN'!N4</f>
+        <f>'d7-to-PEG-PEN'!N4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH63">
-        <f>'d7-to-PEG-PEN'!O4</f>
+        <f>'d7-to-PEG-PEN'!O4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI63">
-        <f>'d7-to-PEG-PEN'!P4</f>
+        <f>'d7-to-PEG-PEN'!P4 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ63">
@@ -32232,67 +32232,67 @@
         <v>0</v>
       </c>
       <c r="DT64">
-        <f>'d7-to-PEG-PEN'!A5</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!A5 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="DU64">
-        <f>'d7-to-PEG-PEN'!B5</f>
+        <f>'d7-to-PEG-PEN'!B5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV64">
-        <f>'d7-to-PEG-PEN'!C5</f>
+        <f>'d7-to-PEG-PEN'!C5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW64">
-        <f>'d7-to-PEG-PEN'!D5</f>
+        <f>'d7-to-PEG-PEN'!D5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX64">
-        <f>'d7-to-PEG-PEN'!E5</f>
+        <f>'d7-to-PEG-PEN'!E5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY64">
-        <f>'d7-to-PEG-PEN'!F5</f>
+        <f>'d7-to-PEG-PEN'!F5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ64">
-        <f>'d7-to-PEG-PEN'!G5</f>
+        <f>'d7-to-PEG-PEN'!G5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA64">
-        <f>'d7-to-PEG-PEN'!H5</f>
+        <f>'d7-to-PEG-PEN'!H5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB64">
-        <f>'d7-to-PEG-PEN'!I5</f>
+        <f>'d7-to-PEG-PEN'!I5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC64">
-        <f>'d7-to-PEG-PEN'!J5</f>
+        <f>'d7-to-PEG-PEN'!J5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED64">
-        <f>'d7-to-PEG-PEN'!K5</f>
+        <f>'d7-to-PEG-PEN'!K5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE64">
-        <f>'d7-to-PEG-PEN'!L5</f>
+        <f>'d7-to-PEG-PEN'!L5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF64">
-        <f>'d7-to-PEG-PEN'!M5</f>
+        <f>'d7-to-PEG-PEN'!M5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG64">
-        <f>'d7-to-PEG-PEN'!N5</f>
+        <f>'d7-to-PEG-PEN'!N5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH64">
-        <f>'d7-to-PEG-PEN'!O5</f>
+        <f>'d7-to-PEG-PEN'!O5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI64">
-        <f>'d7-to-PEG-PEN'!P5</f>
+        <f>'d7-to-PEG-PEN'!P5 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ64">
@@ -32811,67 +32811,67 @@
         <v>0</v>
       </c>
       <c r="DT65">
-        <f>'d7-to-PEG-PEN'!A6</f>
+        <f>'d7-to-PEG-PEN'!A6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU65">
-        <f>'d7-to-PEG-PEN'!B6</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!B6 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="DV65">
-        <f>'d7-to-PEG-PEN'!C6</f>
+        <f>'d7-to-PEG-PEN'!C6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW65">
-        <f>'d7-to-PEG-PEN'!D6</f>
+        <f>'d7-to-PEG-PEN'!D6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX65">
-        <f>'d7-to-PEG-PEN'!E6</f>
+        <f>'d7-to-PEG-PEN'!E6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY65">
-        <f>'d7-to-PEG-PEN'!F6</f>
+        <f>'d7-to-PEG-PEN'!F6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ65">
-        <f>'d7-to-PEG-PEN'!G6</f>
+        <f>'d7-to-PEG-PEN'!G6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA65">
-        <f>'d7-to-PEG-PEN'!H6</f>
+        <f>'d7-to-PEG-PEN'!H6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB65">
-        <f>'d7-to-PEG-PEN'!I6</f>
+        <f>'d7-to-PEG-PEN'!I6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC65">
-        <f>'d7-to-PEG-PEN'!J6</f>
+        <f>'d7-to-PEG-PEN'!J6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED65">
-        <f>'d7-to-PEG-PEN'!K6</f>
+        <f>'d7-to-PEG-PEN'!K6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE65">
-        <f>'d7-to-PEG-PEN'!L6</f>
+        <f>'d7-to-PEG-PEN'!L6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF65">
-        <f>'d7-to-PEG-PEN'!M6</f>
+        <f>'d7-to-PEG-PEN'!M6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG65">
-        <f>'d7-to-PEG-PEN'!N6</f>
+        <f>'d7-to-PEG-PEN'!N6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH65">
-        <f>'d7-to-PEG-PEN'!O6</f>
+        <f>'d7-to-PEG-PEN'!O6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI65">
-        <f>'d7-to-PEG-PEN'!P6</f>
+        <f>'d7-to-PEG-PEN'!P6 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ65">
@@ -33390,67 +33390,67 @@
         <v>0</v>
       </c>
       <c r="DT66">
-        <f>'d7-to-PEG-PEN'!A7</f>
+        <f>'d7-to-PEG-PEN'!A7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU66">
-        <f>'d7-to-PEG-PEN'!B7</f>
+        <f>'d7-to-PEG-PEN'!B7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV66">
-        <f>'d7-to-PEG-PEN'!C7</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!C7 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="DW66">
-        <f>'d7-to-PEG-PEN'!D7</f>
+        <f>'d7-to-PEG-PEN'!D7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX66">
-        <f>'d7-to-PEG-PEN'!E7</f>
+        <f>'d7-to-PEG-PEN'!E7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY66">
-        <f>'d7-to-PEG-PEN'!F7</f>
+        <f>'d7-to-PEG-PEN'!F7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ66">
-        <f>'d7-to-PEG-PEN'!G7</f>
+        <f>'d7-to-PEG-PEN'!G7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA66">
-        <f>'d7-to-PEG-PEN'!H7</f>
+        <f>'d7-to-PEG-PEN'!H7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB66">
-        <f>'d7-to-PEG-PEN'!I7</f>
+        <f>'d7-to-PEG-PEN'!I7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC66">
-        <f>'d7-to-PEG-PEN'!J7</f>
+        <f>'d7-to-PEG-PEN'!J7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED66">
-        <f>'d7-to-PEG-PEN'!K7</f>
+        <f>'d7-to-PEG-PEN'!K7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE66">
-        <f>'d7-to-PEG-PEN'!L7</f>
+        <f>'d7-to-PEG-PEN'!L7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF66">
-        <f>'d7-to-PEG-PEN'!M7</f>
+        <f>'d7-to-PEG-PEN'!M7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG66">
-        <f>'d7-to-PEG-PEN'!N7</f>
+        <f>'d7-to-PEG-PEN'!N7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH66">
-        <f>'d7-to-PEG-PEN'!O7</f>
+        <f>'d7-to-PEG-PEN'!O7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI66">
-        <f>'d7-to-PEG-PEN'!P7</f>
+        <f>'d7-to-PEG-PEN'!P7 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ66">
@@ -33969,67 +33969,67 @@
         <v>0</v>
       </c>
       <c r="DT67">
-        <f>'d7-to-PEG-PEN'!A8</f>
+        <f>'d7-to-PEG-PEN'!A8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU67">
-        <f>'d7-to-PEG-PEN'!B8</f>
+        <f>'d7-to-PEG-PEN'!B8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV67">
-        <f>'d7-to-PEG-PEN'!C8</f>
+        <f>'d7-to-PEG-PEN'!C8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW67">
-        <f>'d7-to-PEG-PEN'!D8</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!D8 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="DX67">
-        <f>'d7-to-PEG-PEN'!E8</f>
+        <f>'d7-to-PEG-PEN'!E8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY67">
-        <f>'d7-to-PEG-PEN'!F8</f>
+        <f>'d7-to-PEG-PEN'!F8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ67">
-        <f>'d7-to-PEG-PEN'!G8</f>
+        <f>'d7-to-PEG-PEN'!G8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA67">
-        <f>'d7-to-PEG-PEN'!H8</f>
+        <f>'d7-to-PEG-PEN'!H8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB67">
-        <f>'d7-to-PEG-PEN'!I8</f>
+        <f>'d7-to-PEG-PEN'!I8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC67">
-        <f>'d7-to-PEG-PEN'!J8</f>
+        <f>'d7-to-PEG-PEN'!J8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED67">
-        <f>'d7-to-PEG-PEN'!K8</f>
+        <f>'d7-to-PEG-PEN'!K8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE67">
-        <f>'d7-to-PEG-PEN'!L8</f>
+        <f>'d7-to-PEG-PEN'!L8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF67">
-        <f>'d7-to-PEG-PEN'!M8</f>
+        <f>'d7-to-PEG-PEN'!M8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG67">
-        <f>'d7-to-PEG-PEN'!N8</f>
+        <f>'d7-to-PEG-PEN'!N8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH67">
-        <f>'d7-to-PEG-PEN'!O8</f>
+        <f>'d7-to-PEG-PEN'!O8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI67">
-        <f>'d7-to-PEG-PEN'!P8</f>
+        <f>'d7-to-PEG-PEN'!P8 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ67">
@@ -34548,67 +34548,67 @@
         <v>0</v>
       </c>
       <c r="DT68">
-        <f>'d7-to-PEG-PEN'!A9</f>
+        <f>'d7-to-PEG-PEN'!A9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU68">
-        <f>'d7-to-PEG-PEN'!B9</f>
+        <f>'d7-to-PEG-PEN'!B9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV68">
-        <f>'d7-to-PEG-PEN'!C9</f>
+        <f>'d7-to-PEG-PEN'!C9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW68">
-        <f>'d7-to-PEG-PEN'!D9</f>
+        <f>'d7-to-PEG-PEN'!D9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX68">
-        <f>'d7-to-PEG-PEN'!E9</f>
+        <f>'d7-to-PEG-PEN'!E9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY68">
-        <f>'d7-to-PEG-PEN'!F9</f>
+        <f>'d7-to-PEG-PEN'!F9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ68">
-        <f>'d7-to-PEG-PEN'!G9</f>
+        <f>'d7-to-PEG-PEN'!G9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA68">
-        <f>'d7-to-PEG-PEN'!H9</f>
+        <f>'d7-to-PEG-PEN'!H9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB68">
-        <f>'d7-to-PEG-PEN'!I9</f>
+        <f>'d7-to-PEG-PEN'!I9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC68">
-        <f>'d7-to-PEG-PEN'!J9</f>
+        <f>'d7-to-PEG-PEN'!J9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED68">
-        <f>'d7-to-PEG-PEN'!K9</f>
+        <f>'d7-to-PEG-PEN'!K9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE68">
-        <f>'d7-to-PEG-PEN'!L9</f>
+        <f>'d7-to-PEG-PEN'!L9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF68">
-        <f>'d7-to-PEG-PEN'!M9</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!M9 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EG68">
-        <f>'d7-to-PEG-PEN'!N9</f>
+        <f>'d7-to-PEG-PEN'!N9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH68">
-        <f>'d7-to-PEG-PEN'!O9</f>
+        <f>'d7-to-PEG-PEN'!O9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI68">
-        <f>'d7-to-PEG-PEN'!P9</f>
+        <f>'d7-to-PEG-PEN'!P9 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ68">
@@ -35127,67 +35127,67 @@
         <v>0</v>
       </c>
       <c r="DT69">
-        <f>'d7-to-PEG-PEN'!A10</f>
+        <f>'d7-to-PEG-PEN'!A10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU69">
-        <f>'d7-to-PEG-PEN'!B10</f>
+        <f>'d7-to-PEG-PEN'!B10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV69">
-        <f>'d7-to-PEG-PEN'!C10</f>
+        <f>'d7-to-PEG-PEN'!C10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW69">
-        <f>'d7-to-PEG-PEN'!D10</f>
+        <f>'d7-to-PEG-PEN'!D10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX69">
-        <f>'d7-to-PEG-PEN'!E10</f>
+        <f>'d7-to-PEG-PEN'!E10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY69">
-        <f>'d7-to-PEG-PEN'!F10</f>
+        <f>'d7-to-PEG-PEN'!F10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ69">
-        <f>'d7-to-PEG-PEN'!G10</f>
+        <f>'d7-to-PEG-PEN'!G10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA69">
-        <f>'d7-to-PEG-PEN'!H10</f>
+        <f>'d7-to-PEG-PEN'!H10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB69">
-        <f>'d7-to-PEG-PEN'!I10</f>
+        <f>'d7-to-PEG-PEN'!I10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC69">
-        <f>'d7-to-PEG-PEN'!J10</f>
+        <f>'d7-to-PEG-PEN'!J10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED69">
-        <f>'d7-to-PEG-PEN'!K10</f>
+        <f>'d7-to-PEG-PEN'!K10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE69">
-        <f>'d7-to-PEG-PEN'!L10</f>
+        <f>'d7-to-PEG-PEN'!L10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF69">
-        <f>'d7-to-PEG-PEN'!M10</f>
+        <f>'d7-to-PEG-PEN'!M10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG69">
-        <f>'d7-to-PEG-PEN'!N10</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!N10 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EH69">
-        <f>'d7-to-PEG-PEN'!O10</f>
+        <f>'d7-to-PEG-PEN'!O10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI69">
-        <f>'d7-to-PEG-PEN'!P10</f>
+        <f>'d7-to-PEG-PEN'!P10 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ69">
@@ -35706,67 +35706,67 @@
         <v>0</v>
       </c>
       <c r="DT70">
-        <f>'d7-to-PEG-PEN'!A11</f>
+        <f>'d7-to-PEG-PEN'!A11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU70">
-        <f>'d7-to-PEG-PEN'!B11</f>
+        <f>'d7-to-PEG-PEN'!B11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV70">
-        <f>'d7-to-PEG-PEN'!C11</f>
+        <f>'d7-to-PEG-PEN'!C11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW70">
-        <f>'d7-to-PEG-PEN'!D11</f>
+        <f>'d7-to-PEG-PEN'!D11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX70">
-        <f>'d7-to-PEG-PEN'!E11</f>
+        <f>'d7-to-PEG-PEN'!E11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY70">
-        <f>'d7-to-PEG-PEN'!F11</f>
+        <f>'d7-to-PEG-PEN'!F11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ70">
-        <f>'d7-to-PEG-PEN'!G11</f>
+        <f>'d7-to-PEG-PEN'!G11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA70">
-        <f>'d7-to-PEG-PEN'!H11</f>
+        <f>'d7-to-PEG-PEN'!H11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB70">
-        <f>'d7-to-PEG-PEN'!I11</f>
+        <f>'d7-to-PEG-PEN'!I11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC70">
-        <f>'d7-to-PEG-PEN'!J11</f>
+        <f>'d7-to-PEG-PEN'!J11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED70">
-        <f>'d7-to-PEG-PEN'!K11</f>
+        <f>'d7-to-PEG-PEN'!K11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE70">
-        <f>'d7-to-PEG-PEN'!L11</f>
+        <f>'d7-to-PEG-PEN'!L11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF70">
-        <f>'d7-to-PEG-PEN'!M11</f>
+        <f>'d7-to-PEG-PEN'!M11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG70">
-        <f>'d7-to-PEG-PEN'!N11</f>
+        <f>'d7-to-PEG-PEN'!N11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH70">
-        <f>'d7-to-PEG-PEN'!O11</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!O11 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EI70">
-        <f>'d7-to-PEG-PEN'!P11</f>
+        <f>'d7-to-PEG-PEN'!P11 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ70">
@@ -36285,68 +36285,68 @@
         <v>0</v>
       </c>
       <c r="DT71">
-        <f>'d7-to-PEG-PEN'!A12</f>
+        <f>'d7-to-PEG-PEN'!A12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU71">
-        <f>'d7-to-PEG-PEN'!B12</f>
+        <f>'d7-to-PEG-PEN'!B12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV71">
-        <f>'d7-to-PEG-PEN'!C12</f>
+        <f>'d7-to-PEG-PEN'!C12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW71">
-        <f>'d7-to-PEG-PEN'!D12</f>
+        <f>'d7-to-PEG-PEN'!D12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX71">
-        <f>'d7-to-PEG-PEN'!E12</f>
+        <f>'d7-to-PEG-PEN'!E12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY71">
-        <f>'d7-to-PEG-PEN'!F12</f>
+        <f>'d7-to-PEG-PEN'!F12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ71">
-        <f>'d7-to-PEG-PEN'!G12</f>
+        <f>'d7-to-PEG-PEN'!G12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA71">
-        <f>'d7-to-PEG-PEN'!H12</f>
+        <f>'d7-to-PEG-PEN'!H12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB71">
-        <f>'d7-to-PEG-PEN'!I12</f>
+        <f>'d7-to-PEG-PEN'!I12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC71">
-        <f>'d7-to-PEG-PEN'!J12</f>
+        <f>'d7-to-PEG-PEN'!J12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED71">
-        <f>'d7-to-PEG-PEN'!K12</f>
+        <f>'d7-to-PEG-PEN'!K12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE71">
-        <f>'d7-to-PEG-PEN'!L12</f>
+        <f>'d7-to-PEG-PEN'!L12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF71">
-        <f>'d7-to-PEG-PEN'!M12</f>
+        <f>'d7-to-PEG-PEN'!M12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG71">
-        <f>'d7-to-PEG-PEN'!N12</f>
+        <f>'d7-to-PEG-PEN'!N12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH71">
-        <f>'d7-to-PEG-PEN'!O12</f>
+        <f>'d7-to-PEG-PEN'!O12 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI71">
-        <f>'d7-to-PEG-PEN'!P12</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!P12 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EJ71">
         <f>'d7-to-PEG-PEN'!A12 *  Gains!$M$8</f>
@@ -36864,67 +36864,67 @@
         <v>0</v>
       </c>
       <c r="DT72">
-        <f>'d7-to-PEG-PEN'!A13</f>
+        <f>'d7-to-PEG-PEN'!A13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU72">
-        <f>'d7-to-PEG-PEN'!B13</f>
+        <f>'d7-to-PEG-PEN'!B13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV72">
-        <f>'d7-to-PEG-PEN'!C13</f>
+        <f>'d7-to-PEG-PEN'!C13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW72">
-        <f>'d7-to-PEG-PEN'!D13</f>
+        <f>'d7-to-PEG-PEN'!D13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX72">
-        <f>'d7-to-PEG-PEN'!E13</f>
+        <f>'d7-to-PEG-PEN'!E13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY72">
-        <f>'d7-to-PEG-PEN'!F13</f>
+        <f>'d7-to-PEG-PEN'!F13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ72">
-        <f>'d7-to-PEG-PEN'!G13</f>
+        <f>'d7-to-PEG-PEN'!G13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA72">
-        <f>'d7-to-PEG-PEN'!H13</f>
+        <f>'d7-to-PEG-PEN'!H13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB72">
-        <f>'d7-to-PEG-PEN'!I13</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!I13 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EC72">
-        <f>'d7-to-PEG-PEN'!J13</f>
+        <f>'d7-to-PEG-PEN'!J13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED72">
-        <f>'d7-to-PEG-PEN'!K13</f>
+        <f>'d7-to-PEG-PEN'!K13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE72">
-        <f>'d7-to-PEG-PEN'!L13</f>
+        <f>'d7-to-PEG-PEN'!L13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF72">
-        <f>'d7-to-PEG-PEN'!M13</f>
+        <f>'d7-to-PEG-PEN'!M13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG72">
-        <f>'d7-to-PEG-PEN'!N13</f>
+        <f>'d7-to-PEG-PEN'!N13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH72">
-        <f>'d7-to-PEG-PEN'!O13</f>
+        <f>'d7-to-PEG-PEN'!O13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI72">
-        <f>'d7-to-PEG-PEN'!P13</f>
+        <f>'d7-to-PEG-PEN'!P13 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ72">
@@ -37443,67 +37443,67 @@
         <v>0</v>
       </c>
       <c r="DT73">
-        <f>'d7-to-PEG-PEN'!A14</f>
+        <f>'d7-to-PEG-PEN'!A14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU73">
-        <f>'d7-to-PEG-PEN'!B14</f>
+        <f>'d7-to-PEG-PEN'!B14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV73">
-        <f>'d7-to-PEG-PEN'!C14</f>
+        <f>'d7-to-PEG-PEN'!C14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW73">
-        <f>'d7-to-PEG-PEN'!D14</f>
+        <f>'d7-to-PEG-PEN'!D14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX73">
-        <f>'d7-to-PEG-PEN'!E14</f>
+        <f>'d7-to-PEG-PEN'!E14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY73">
-        <f>'d7-to-PEG-PEN'!F14</f>
+        <f>'d7-to-PEG-PEN'!F14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ73">
-        <f>'d7-to-PEG-PEN'!G14</f>
+        <f>'d7-to-PEG-PEN'!G14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA73">
-        <f>'d7-to-PEG-PEN'!H14</f>
+        <f>'d7-to-PEG-PEN'!H14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB73">
-        <f>'d7-to-PEG-PEN'!I14</f>
+        <f>'d7-to-PEG-PEN'!I14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC73">
-        <f>'d7-to-PEG-PEN'!J14</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!J14 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="ED73">
-        <f>'d7-to-PEG-PEN'!K14</f>
+        <f>'d7-to-PEG-PEN'!K14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE73">
-        <f>'d7-to-PEG-PEN'!L14</f>
+        <f>'d7-to-PEG-PEN'!L14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF73">
-        <f>'d7-to-PEG-PEN'!M14</f>
+        <f>'d7-to-PEG-PEN'!M14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG73">
-        <f>'d7-to-PEG-PEN'!N14</f>
+        <f>'d7-to-PEG-PEN'!N14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH73">
-        <f>'d7-to-PEG-PEN'!O14</f>
+        <f>'d7-to-PEG-PEN'!O14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI73">
-        <f>'d7-to-PEG-PEN'!P14</f>
+        <f>'d7-to-PEG-PEN'!P14 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ73">
@@ -38022,67 +38022,67 @@
         <v>0</v>
       </c>
       <c r="DT74">
-        <f>'d7-to-PEG-PEN'!A15</f>
+        <f>'d7-to-PEG-PEN'!A15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU74">
-        <f>'d7-to-PEG-PEN'!B15</f>
+        <f>'d7-to-PEG-PEN'!B15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV74">
-        <f>'d7-to-PEG-PEN'!C15</f>
+        <f>'d7-to-PEG-PEN'!C15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW74">
-        <f>'d7-to-PEG-PEN'!D15</f>
+        <f>'d7-to-PEG-PEN'!D15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX74">
-        <f>'d7-to-PEG-PEN'!E15</f>
+        <f>'d7-to-PEG-PEN'!E15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY74">
-        <f>'d7-to-PEG-PEN'!F15</f>
+        <f>'d7-to-PEG-PEN'!F15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ74">
-        <f>'d7-to-PEG-PEN'!G15</f>
+        <f>'d7-to-PEG-PEN'!G15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA74">
-        <f>'d7-to-PEG-PEN'!H15</f>
+        <f>'d7-to-PEG-PEN'!H15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB74">
-        <f>'d7-to-PEG-PEN'!I15</f>
+        <f>'d7-to-PEG-PEN'!I15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC74">
-        <f>'d7-to-PEG-PEN'!J15</f>
+        <f>'d7-to-PEG-PEN'!J15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED74">
-        <f>'d7-to-PEG-PEN'!K15</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!K15 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EE74">
-        <f>'d7-to-PEG-PEN'!L15</f>
+        <f>'d7-to-PEG-PEN'!L15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EF74">
-        <f>'d7-to-PEG-PEN'!M15</f>
+        <f>'d7-to-PEG-PEN'!M15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG74">
-        <f>'d7-to-PEG-PEN'!N15</f>
+        <f>'d7-to-PEG-PEN'!N15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH74">
-        <f>'d7-to-PEG-PEN'!O15</f>
+        <f>'d7-to-PEG-PEN'!O15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI74">
-        <f>'d7-to-PEG-PEN'!P15</f>
+        <f>'d7-to-PEG-PEN'!P15 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ74">
@@ -38601,67 +38601,67 @@
         <v>0</v>
       </c>
       <c r="DT75">
-        <f>'d7-to-PEG-PEN'!A16</f>
+        <f>'d7-to-PEG-PEN'!A16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DU75">
-        <f>'d7-to-PEG-PEN'!B16</f>
+        <f>'d7-to-PEG-PEN'!B16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DV75">
-        <f>'d7-to-PEG-PEN'!C16</f>
+        <f>'d7-to-PEG-PEN'!C16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DW75">
-        <f>'d7-to-PEG-PEN'!D16</f>
+        <f>'d7-to-PEG-PEN'!D16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DX75">
-        <f>'d7-to-PEG-PEN'!E16</f>
+        <f>'d7-to-PEG-PEN'!E16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DY75">
-        <f>'d7-to-PEG-PEN'!F16</f>
+        <f>'d7-to-PEG-PEN'!F16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="DZ75">
-        <f>'d7-to-PEG-PEN'!G16</f>
+        <f>'d7-to-PEG-PEN'!G16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EA75">
-        <f>'d7-to-PEG-PEN'!H16</f>
+        <f>'d7-to-PEG-PEN'!H16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EB75">
-        <f>'d7-to-PEG-PEN'!I16</f>
+        <f>'d7-to-PEG-PEN'!I16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EC75">
-        <f>'d7-to-PEG-PEN'!J16</f>
+        <f>'d7-to-PEG-PEN'!J16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="ED75">
-        <f>'d7-to-PEG-PEN'!K16</f>
+        <f>'d7-to-PEG-PEN'!K16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EE75">
-        <f>'d7-to-PEG-PEN'!L16</f>
-        <v>-1</v>
+        <f>'d7-to-PEG-PEN'!L16 * Gains!$L$8</f>
+        <v>0</v>
       </c>
       <c r="EF75">
-        <f>'d7-to-PEG-PEN'!M16</f>
+        <f>'d7-to-PEG-PEN'!M16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EG75">
-        <f>'d7-to-PEG-PEN'!N16</f>
+        <f>'d7-to-PEG-PEN'!N16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EH75">
-        <f>'d7-to-PEG-PEN'!O16</f>
+        <f>'d7-to-PEG-PEN'!O16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EI75">
-        <f>'d7-to-PEG-PEN'!P16</f>
+        <f>'d7-to-PEG-PEN'!P16 * Gains!$L$8</f>
         <v>0</v>
       </c>
       <c r="EJ75">
@@ -77220,7 +77220,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -82873,8 +82873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FFBB60-C9AF-470A-B711-59681D0A1768}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -83095,7 +83095,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -83136,7 +83136,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -85690,7 +85690,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
